--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -32,10 +32,10 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about N</t>
+    <t xml:space="preserve">Belief about GCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about NR</t>
   </si>
 </sst>
 </file>
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>50.9253731343284</v>
+        <v>58.8943661971831</v>
       </c>
       <c r="C2" t="n">
-        <v>58.8387096774194</v>
+        <v>52.232044198895</v>
       </c>
       <c r="D2" t="n">
-        <v>64.4827586206897</v>
+        <v>58.1639344262295</v>
       </c>
       <c r="E2" t="n">
-        <v>45.4117647058824</v>
+        <v>56.195652173913</v>
       </c>
       <c r="F2" t="n">
-        <v>47.5697674418605</v>
+        <v>50.9098516546215</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>55.5671641791045</v>
+        <v>57.4859154929577</v>
       </c>
       <c r="C3" t="n">
-        <v>59.1612903225806</v>
+        <v>51.9171270718232</v>
       </c>
       <c r="D3" t="n">
-        <v>61.8965517241379</v>
+        <v>58.155737704918</v>
       </c>
       <c r="E3" t="n">
-        <v>55.1617647058824</v>
+        <v>57.5217391304348</v>
       </c>
       <c r="F3" t="n">
-        <v>52.3488372093023</v>
+        <v>54.0848231266641</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>58.8943661971831</v>
+        <v>60.941935483871</v>
       </c>
       <c r="C2" t="n">
-        <v>52.232044198895</v>
+        <v>55.1875825627477</v>
       </c>
       <c r="D2" t="n">
-        <v>58.1639344262295</v>
+        <v>63.3075506445672</v>
       </c>
       <c r="E2" t="n">
-        <v>56.195652173913</v>
+        <v>57.4937888198758</v>
       </c>
       <c r="F2" t="n">
-        <v>50.9098516546215</v>
+        <v>50.9511918274688</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>57.4859154929577</v>
+        <v>60.3854838709677</v>
       </c>
       <c r="C3" t="n">
-        <v>51.9171270718232</v>
+        <v>52.672391017173</v>
       </c>
       <c r="D3" t="n">
-        <v>58.155737704918</v>
+        <v>62.6279926335175</v>
       </c>
       <c r="E3" t="n">
-        <v>57.5217391304348</v>
+        <v>59.3400621118012</v>
       </c>
       <c r="F3" t="n">
-        <v>54.0848231266641</v>
+        <v>54.1278849791903</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Belief about GCS</t>
@@ -386,45 +389,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>60.941935483871</v>
+        <v>51.3683289283322</v>
       </c>
       <c r="C2" t="n">
-        <v>55.1875825627477</v>
+        <v>58.51905811066</v>
       </c>
       <c r="D2" t="n">
-        <v>63.3075506445672</v>
+        <v>61.1573061310944</v>
       </c>
       <c r="E2" t="n">
-        <v>57.4937888198758</v>
+        <v>55.7354278027379</v>
       </c>
       <c r="F2" t="n">
-        <v>50.9511918274688</v>
+        <v>63.9521280575879</v>
+      </c>
+      <c r="G2" t="n">
+        <v>56.6321504791927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>60.3854838709677</v>
+        <v>54.5059957090102</v>
       </c>
       <c r="C3" t="n">
-        <v>52.672391017173</v>
+        <v>57.8918335070769</v>
       </c>
       <c r="D3" t="n">
-        <v>62.6279926335175</v>
+        <v>59.9384670317373</v>
       </c>
       <c r="E3" t="n">
-        <v>59.3400621118012</v>
+        <v>52.7341250609137</v>
       </c>
       <c r="F3" t="n">
-        <v>54.1278849791903</v>
+        <v>63.1491487537694</v>
+      </c>
+      <c r="G3" t="n">
+        <v>59.6817492855367</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>51.3683289283322</v>
+        <v>51.7473351715211</v>
       </c>
       <c r="C2" t="n">
-        <v>58.51905811066</v>
+        <v>58.7541517896661</v>
       </c>
       <c r="D2" t="n">
-        <v>61.1573061310944</v>
+        <v>61.2491065419879</v>
       </c>
       <c r="E2" t="n">
-        <v>55.7354278027379</v>
+        <v>55.8749600897629</v>
       </c>
       <c r="F2" t="n">
-        <v>63.9521280575879</v>
+        <v>64.0120951783193</v>
       </c>
       <c r="G2" t="n">
-        <v>56.6321504791927</v>
+        <v>56.9309313222613</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>54.5059957090102</v>
+        <v>55.1537504806663</v>
       </c>
       <c r="C3" t="n">
-        <v>57.8918335070769</v>
+        <v>57.9559868115041</v>
       </c>
       <c r="D3" t="n">
-        <v>59.9384670317373</v>
+        <v>60.3233161838463</v>
       </c>
       <c r="E3" t="n">
-        <v>52.7341250609137</v>
+        <v>53.0126520362074</v>
       </c>
       <c r="F3" t="n">
-        <v>63.1491487537694</v>
+        <v>63.2771166743754</v>
       </c>
       <c r="G3" t="n">
-        <v>59.6817492855367</v>
+        <v>59.0743290556897</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/belief_mean.xlsx
+++ b/xlsx/country_comparison/belief_mean.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>51.7473351715211</v>
+        <v>51.7468893271431</v>
       </c>
       <c r="C2" t="n">
-        <v>58.7541517896661</v>
+        <v>58.7165906294257</v>
       </c>
       <c r="D2" t="n">
-        <v>61.2491065419879</v>
+        <v>61.2471232063537</v>
       </c>
       <c r="E2" t="n">
-        <v>55.8749600897629</v>
+        <v>55.8760774338855</v>
       </c>
       <c r="F2" t="n">
-        <v>64.0120951783193</v>
+        <v>63.2492428282122</v>
       </c>
       <c r="G2" t="n">
-        <v>56.9309313222613</v>
+        <v>56.9303970210785</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>55.1537504806663</v>
+        <v>55.1540879537179</v>
       </c>
       <c r="C3" t="n">
-        <v>57.9559868115041</v>
+        <v>57.8956679241541</v>
       </c>
       <c r="D3" t="n">
-        <v>60.3233161838463</v>
+        <v>60.3249521322473</v>
       </c>
       <c r="E3" t="n">
-        <v>53.0126520362074</v>
+        <v>53.014236682396</v>
       </c>
       <c r="F3" t="n">
-        <v>63.2771166743754</v>
+        <v>62.0685304640517</v>
       </c>
       <c r="G3" t="n">
-        <v>59.0743290556897</v>
+        <v>59.0733426883397</v>
       </c>
     </row>
   </sheetData>
